--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v4.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA3211D-F394-4D7B-86A3-4B8B16F952BE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ED18BE-1EEA-4C6E-8E1A-E1C6A1CEFA36}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="86">
   <si>
     <t>Priority</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Summary of Product Information</t>
   </si>
   <si>
-    <t>The value correscpoding to label 10039 is incorrect it should be mapped (ignore the [1] in the xpath) to /document/component[1]/structuredBody[1]/component[1]/section[1]/subject[1]/manufacturedProduct[1]/manufacturedProduct[1]/code[1]/@displayName for the applicable product where codeSystem="2.16.840.1.113883.2.20.6.42, and for now insert DIN: before the value</t>
-  </si>
-  <si>
     <t>They don’t seem to work anymore, the syntax is right since they work when I use the FDA Stylesheet but not when I use either dev.2 or CPID</t>
   </si>
   <si>
@@ -291,6 +288,12 @@
   </si>
   <si>
     <t>Missing from CPID</t>
+  </si>
+  <si>
+    <t>The value correscpoding to label 10039 is incorrect it should be mapped (ignore the [1] in the xpath)  /document/component[1]/structuredBody[1]/component[1]/section[1]/subject[1]/manufacturedProduct[1]/manufacturedProduct[1] for the applicable product where codeSystem="2.16.840.1.113883.2.20.6.55, insert MPID: before the value, then use displayName (code)</t>
+  </si>
+  <si>
+    <t>pending test</t>
   </si>
 </sst>
 </file>
@@ -652,8 +655,8 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -731,7 +734,7 @@
         <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
@@ -751,7 +754,7 @@
         <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
@@ -762,7 +765,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -814,7 +817,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,10 +834,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
@@ -874,10 +877,10 @@
         <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>35</v>
       </c>
@@ -885,7 +888,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -894,7 +897,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -957,7 +960,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
@@ -1001,7 +1004,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1465,7 +1468,7 @@
         <v>73</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
@@ -1482,10 +1485,10 @@
         <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="171.2" x14ac:dyDescent="0.25">
